--- a/DOC/DMS开发计划-9.3.xlsx
+++ b/DOC/DMS开发计划-9.3.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="269">
   <si>
     <t>功能模块</t>
   </si>
@@ -338,12 +338,6 @@
   </si>
   <si>
     <t>电话回访</t>
-  </si>
-  <si>
-    <t>工单任务分配，创建回访任务</t>
-  </si>
-  <si>
-    <t>保存，完成，完成所有，预约开单，呼叫</t>
   </si>
   <si>
     <t>根据配置，是否需要进行任务分配；</t>
@@ -901,6 +895,42 @@
   </si>
   <si>
     <t>需要根据不同的业务类型更新业务数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单任务分配，创建回访任务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存，完成，完成所有，预约开单，呼叫</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁龄勃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁升启</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张志安</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫敏兰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫敏兰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾史强</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊鹰</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1191,6 +1221,18 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1222,18 +1264,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1549,8 +1579,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:XDT37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1587,7 +1617,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="39" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1596,7 +1626,9 @@
       <c r="C2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="15" t="s">
+        <v>262</v>
+      </c>
       <c r="E2" s="10">
         <v>43347</v>
       </c>
@@ -1604,12 +1636,14 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A3" s="50"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="15" t="s">
+        <v>262</v>
+      </c>
       <c r="E3" s="10">
         <v>43348</v>
       </c>
@@ -1617,12 +1651,14 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="50"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="15" t="s">
+        <v>262</v>
+      </c>
       <c r="E4" s="10">
         <v>43348</v>
       </c>
@@ -1630,12 +1666,14 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="50"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="15" t="s">
+        <v>262</v>
+      </c>
       <c r="E5" s="10">
         <v>43348</v>
       </c>
@@ -1643,12 +1681,14 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="50"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="15" t="s">
+        <v>262</v>
+      </c>
       <c r="E6" s="10">
         <v>43348</v>
       </c>
@@ -1656,12 +1696,14 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="50"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="15" t="s">
+        <v>262</v>
+      </c>
       <c r="E7" s="10">
         <v>43347</v>
       </c>
@@ -1669,12 +1711,14 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="50"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="15" t="s">
+        <v>262</v>
+      </c>
       <c r="E8" s="10">
         <v>43349</v>
       </c>
@@ -1682,12 +1726,14 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="50"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="15" t="s">
+        <v>262</v>
+      </c>
       <c r="E9" s="10">
         <v>43353</v>
       </c>
@@ -1695,12 +1741,14 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="50"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="15" t="s">
+        <v>262</v>
+      </c>
       <c r="E10" s="10">
         <v>43353</v>
       </c>
@@ -1708,12 +1756,14 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="50"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="15" t="s">
+        <v>262</v>
+      </c>
       <c r="E11" s="10">
         <v>43353</v>
       </c>
@@ -1721,12 +1771,14 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="50"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="15" t="s">
+        <v>262</v>
+      </c>
       <c r="E12" s="10">
         <v>43355</v>
       </c>
@@ -1734,12 +1786,14 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="50"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="15" t="s">
+        <v>262</v>
+      </c>
       <c r="E13" s="10">
         <v>43355</v>
       </c>
@@ -1747,12 +1801,14 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="51"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="15" t="s">
+        <v>262</v>
+      </c>
       <c r="E14" s="10">
         <v>43353</v>
       </c>
@@ -1760,14 +1816,16 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="39" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="15" t="s">
+        <v>263</v>
+      </c>
       <c r="E15" s="10">
         <v>43347</v>
       </c>
@@ -1775,12 +1833,14 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="50"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="15" t="s">
+        <v>263</v>
+      </c>
       <c r="E16" s="10">
         <v>43348</v>
       </c>
@@ -1788,12 +1848,14 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="51"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="15" t="s">
+        <v>263</v>
+      </c>
       <c r="E17" s="10">
         <v>43348</v>
       </c>
@@ -1801,14 +1863,16 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="39" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="15" t="s">
+        <v>262</v>
+      </c>
       <c r="E18" s="10">
         <v>43346</v>
       </c>
@@ -1816,12 +1880,14 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="50"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="15" t="s">
+        <v>262</v>
+      </c>
       <c r="E19" s="10">
         <v>43348</v>
       </c>
@@ -1829,12 +1895,14 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="50"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="15" t="s">
+        <v>262</v>
+      </c>
       <c r="E20" s="10">
         <v>43347</v>
       </c>
@@ -1842,12 +1910,14 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="51"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="15" t="s">
+        <v>262</v>
+      </c>
       <c r="E21" s="10">
         <v>43347</v>
       </c>
@@ -1855,14 +1925,16 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="39" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="15" t="s">
+        <v>263</v>
+      </c>
       <c r="E22" s="10">
         <v>43349</v>
       </c>
@@ -1870,12 +1942,14 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="51"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="D23" s="15" t="s">
+        <v>263</v>
+      </c>
       <c r="E23" s="10">
         <v>43350</v>
       </c>
@@ -1883,7 +1957,7 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="38" t="s">
         <v>72</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1892,7 +1966,9 @@
       <c r="C24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="15" t="s">
+        <v>264</v>
+      </c>
       <c r="E24" s="10">
         <v>43350</v>
       </c>
@@ -1900,12 +1976,14 @@
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A25" s="52"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="D25" s="15" t="s">
+        <v>264</v>
+      </c>
       <c r="E25" s="10">
         <v>43350</v>
       </c>
@@ -1913,12 +1991,14 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="52"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="15" t="s">
+        <v>264</v>
+      </c>
       <c r="E26" s="10">
         <v>43350</v>
       </c>
@@ -1926,12 +2006,14 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="52"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="D27" s="15" t="s">
+        <v>264</v>
+      </c>
       <c r="E27" s="10">
         <v>43350</v>
       </c>
@@ -1939,12 +2021,14 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="52"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="15" t="s">
+        <v>264</v>
+      </c>
       <c r="E28" s="10">
         <v>43350</v>
       </c>
@@ -1952,12 +2036,14 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="52"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="D29" s="15" t="s">
+        <v>264</v>
+      </c>
       <c r="E29" s="10">
         <v>43350</v>
       </c>
@@ -1965,12 +2051,14 @@
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="52"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="15" t="s">
+        <v>264</v>
+      </c>
       <c r="E30" s="10">
         <v>43353</v>
       </c>
@@ -1978,12 +2066,14 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="52"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="D31" s="15" t="s">
+        <v>264</v>
+      </c>
       <c r="E31" s="10">
         <v>43353</v>
       </c>
@@ -1991,12 +2081,14 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A32" s="52"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="15" t="s">
+        <v>264</v>
+      </c>
       <c r="E32" s="10">
         <v>43353</v>
       </c>
@@ -2004,12 +2096,14 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A33" s="52"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="D33" s="15" t="s">
+        <v>264</v>
+      </c>
       <c r="E33" s="10">
         <v>43355</v>
       </c>
@@ -2017,12 +2111,14 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A34" s="52"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="D34" s="15" t="s">
+        <v>264</v>
+      </c>
       <c r="E34" s="10">
         <v>43355</v>
       </c>
@@ -2030,12 +2126,14 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A35" s="52"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+      <c r="D35" s="15" t="s">
+        <v>264</v>
+      </c>
       <c r="E35" s="10">
         <v>43355</v>
       </c>
@@ -2043,14 +2141,16 @@
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="38" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="D36" s="15" t="s">
+        <v>263</v>
+      </c>
       <c r="E36" s="10">
         <v>43352</v>
       </c>
@@ -2058,14 +2158,16 @@
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A37" s="52"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="4"/>
+      <c r="D37" s="15" t="s">
+        <v>263</v>
+      </c>
       <c r="E37" s="10">
         <v>43352</v>
       </c>
@@ -2103,7 +2205,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="39" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2112,7 +2214,7 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="51"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
@@ -2162,7 +2264,7 @@
       <c r="C7" s="2"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="38" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2170,7 +2272,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="52"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
@@ -2190,7 +2292,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="38" t="s">
         <v>96</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2198,13 +2300,13 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="52"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="52"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="4" t="s">
         <v>99</v>
       </c>
@@ -2230,7 +2332,7 @@
   <dimension ref="A1:XDT4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -2267,15 +2369,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="38" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
-        <v>79</v>
+      <c r="D2" s="15" t="s">
+        <v>265</v>
       </c>
       <c r="E2" s="10">
         <v>43347</v>
@@ -2284,13 +2386,13 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="52"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>79</v>
+      <c r="D3" s="15" t="s">
+        <v>265</v>
       </c>
       <c r="E3" s="10">
         <v>43347</v>
@@ -2299,13 +2401,13 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="52"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>79</v>
+      <c r="D4" s="15" t="s">
+        <v>265</v>
       </c>
       <c r="E4" s="10">
         <v>43347</v>
@@ -2328,7 +2430,7 @@
   <dimension ref="A1:XDT12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -2365,15 +2467,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="38" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
-        <v>79</v>
+      <c r="D2" s="15" t="s">
+        <v>266</v>
       </c>
       <c r="E2" s="10">
         <v>43353</v>
@@ -2382,13 +2484,13 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="52"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>79</v>
+      <c r="D3" s="15" t="s">
+        <v>266</v>
       </c>
       <c r="E3" s="10">
         <v>43353</v>
@@ -2404,8 +2506,8 @@
         <v>85</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>79</v>
+      <c r="D4" s="15" t="s">
+        <v>266</v>
       </c>
       <c r="E4" s="10">
         <v>43353</v>
@@ -2421,8 +2523,8 @@
         <v>86</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>79</v>
+      <c r="D5" s="15" t="s">
+        <v>266</v>
       </c>
       <c r="E5" s="10">
         <v>43353</v>
@@ -2438,8 +2540,8 @@
         <v>88</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>79</v>
+      <c r="D6" s="15" t="s">
+        <v>267</v>
       </c>
       <c r="E6" s="10">
         <v>43347</v>
@@ -2455,8 +2557,8 @@
         <v>90</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>79</v>
+      <c r="D7" s="15" t="s">
+        <v>267</v>
       </c>
       <c r="E7" s="10">
         <v>43347</v>
@@ -2472,8 +2574,8 @@
         <v>91</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
-        <v>79</v>
+      <c r="D8" s="15" t="s">
+        <v>267</v>
       </c>
       <c r="E8" s="10">
         <v>43347</v>
@@ -2489,8 +2591,8 @@
         <v>92</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>79</v>
+      <c r="D9" s="15" t="s">
+        <v>267</v>
       </c>
       <c r="E9" s="10">
         <v>43347</v>
@@ -2506,8 +2608,8 @@
         <v>93</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>79</v>
+      <c r="D10" s="15" t="s">
+        <v>267</v>
       </c>
       <c r="E10" s="10">
         <v>43347</v>
@@ -2523,8 +2625,8 @@
         <v>94</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>79</v>
+      <c r="D11" s="15" t="s">
+        <v>267</v>
       </c>
       <c r="E11" s="10">
         <v>43347</v>
@@ -2540,8 +2642,8 @@
         <v>95</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
-        <v>79</v>
+      <c r="D12" s="15" t="s">
+        <v>267</v>
       </c>
       <c r="E12" s="10">
         <v>43347</v>
@@ -2564,7 +2666,7 @@
   <dimension ref="A1:XFD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -2601,14 +2703,16 @@
       </c>
     </row>
     <row r="2" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="38" t="s">
         <v>96</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="15" t="s">
+        <v>268</v>
+      </c>
       <c r="E2" s="10">
         <v>43349</v>
       </c>
@@ -2616,12 +2720,14 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="52"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="15" t="s">
+        <v>268</v>
+      </c>
       <c r="E3" s="10">
         <v>43349</v>
       </c>
@@ -2629,14 +2735,16 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7 16349:16384" s="5" customFormat="1" ht="38.25">
-      <c r="A4" s="52"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="15" t="s">
+        <v>268</v>
+      </c>
       <c r="E4" s="10">
         <v>43349</v>
       </c>
@@ -2651,7 +2759,9 @@
         <v>101</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="15" t="s">
+        <v>268</v>
+      </c>
       <c r="E5" s="10">
         <v>43349</v>
       </c>
@@ -2672,14 +2782,16 @@
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>105</v>
+      <c r="B7" s="15" t="s">
+        <v>260</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="15" t="s">
+        <v>268</v>
+      </c>
       <c r="E7" s="10">
         <v>43350</v>
       </c>
@@ -2723,14 +2835,16 @@
       <c r="XFD7"/>
     </row>
     <row r="8" spans="1:7 16349:16384" s="5" customFormat="1" ht="25.5">
-      <c r="A8" s="52"/>
-      <c r="B8" s="4" t="s">
-        <v>106</v>
+      <c r="A8" s="38"/>
+      <c r="B8" s="15" t="s">
+        <v>261</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>268</v>
+      </c>
       <c r="E8" s="10">
         <v>43350</v>
       </c>
@@ -2775,15 +2889,17 @@
     </row>
     <row r="9" spans="1:7 16349:16384" s="5" customFormat="1" ht="62.1" customHeight="1">
       <c r="A9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="15" t="s">
+        <v>268</v>
+      </c>
       <c r="E9" s="10">
         <v>43350</v>
       </c>
@@ -2828,7 +2944,7 @@
     </row>
     <row r="10" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -2889,7 +3005,7 @@
   <dimension ref="A1:XFD15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -2926,16 +3042,18 @@
       </c>
     </row>
     <row r="2" spans="1:7 16349:16384" s="5" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A2" s="52" t="s">
-        <v>112</v>
+      <c r="A2" s="38" t="s">
+        <v>110</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="D2" s="4"/>
+        <v>259</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>267</v>
+      </c>
       <c r="E2" s="10">
         <v>43354</v>
       </c>
@@ -2943,12 +3061,14 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="52"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="15" t="s">
+        <v>267</v>
+      </c>
       <c r="E3" s="10">
         <v>43354</v>
       </c>
@@ -2956,14 +3076,16 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="52" t="s">
-        <v>115</v>
+      <c r="A4" s="38" t="s">
+        <v>113</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="15" t="s">
+        <v>267</v>
+      </c>
       <c r="E4" s="10">
         <v>43354</v>
       </c>
@@ -2971,12 +3093,14 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="52"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="15" t="s">
+        <v>267</v>
+      </c>
       <c r="E5" s="10">
         <v>43354</v>
       </c>
@@ -2984,16 +3108,18 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="52" t="s">
-        <v>118</v>
+      <c r="A6" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>258</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>267</v>
+      </c>
       <c r="E6" s="10">
         <v>43353</v>
       </c>
@@ -3037,14 +3163,16 @@
       <c r="XFD6"/>
     </row>
     <row r="7" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="52"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>258</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>267</v>
+      </c>
       <c r="E7" s="10">
         <v>43353</v>
       </c>
@@ -3089,13 +3217,15 @@
     </row>
     <row r="8" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="15" t="s">
+        <v>267</v>
+      </c>
       <c r="E8" s="10">
         <v>43348</v>
       </c>
@@ -3140,13 +3270,15 @@
     </row>
     <row r="9" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="15" t="s">
+        <v>267</v>
+      </c>
       <c r="E9" s="10">
         <v>43348</v>
       </c>
@@ -3190,14 +3322,16 @@
       <c r="XFD9"/>
     </row>
     <row r="10" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="52" t="s">
-        <v>123</v>
+      <c r="A10" s="38" t="s">
+        <v>121</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="15" t="s">
+        <v>267</v>
+      </c>
       <c r="E10" s="10">
         <v>43348</v>
       </c>
@@ -3241,12 +3375,14 @@
       <c r="XFD10"/>
     </row>
     <row r="11" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="52"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="15" t="s">
+        <v>267</v>
+      </c>
       <c r="E11" s="10">
         <v>43348</v>
       </c>
@@ -3290,12 +3426,14 @@
       <c r="XFD11"/>
     </row>
     <row r="12" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="52"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="15" t="s">
+        <v>267</v>
+      </c>
       <c r="E12" s="10">
         <v>43348</v>
       </c>
@@ -3339,14 +3477,16 @@
       <c r="XFD12"/>
     </row>
     <row r="13" spans="1:7 16349:16384" ht="24.95" customHeight="1">
-      <c r="A13" s="52" t="s">
-        <v>127</v>
+      <c r="A13" s="38" t="s">
+        <v>125</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="15" t="s">
+        <v>264</v>
+      </c>
       <c r="E13" s="10">
         <v>43350</v>
       </c>
@@ -3354,12 +3494,14 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7 16349:16384" ht="24.95" customHeight="1">
-      <c r="A14" s="52"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="15" t="s">
+        <v>264</v>
+      </c>
       <c r="E14" s="10">
         <v>43350</v>
       </c>
@@ -3367,12 +3509,14 @@
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7 16349:16384" ht="24.95" customHeight="1">
-      <c r="A15" s="52"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="15" t="s">
+        <v>264</v>
+      </c>
       <c r="E15" s="10">
         <v>43350</v>
       </c>
@@ -3398,7 +3542,7 @@
   <dimension ref="A1:XDT4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -3435,42 +3579,48 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="49" t="s">
-        <v>131</v>
+      <c r="A2" s="39" t="s">
+        <v>129</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="15" t="s">
+        <v>266</v>
+      </c>
       <c r="E2" s="10">
-        <v>43277</v>
+        <v>43354</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="50"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="15" t="s">
+        <v>266</v>
+      </c>
       <c r="E3" s="10">
-        <v>43277</v>
+        <v>43354</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A4" s="51"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="15" t="s">
+        <v>266</v>
+      </c>
       <c r="E4" s="10">
-        <v>43277</v>
+        <v>43354</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -3489,7 +3639,9 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:XFD41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
@@ -3525,173 +3677,151 @@
       </c>
     </row>
     <row r="2" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="52" t="s">
-        <v>134</v>
+      <c r="A2" s="38" t="s">
+        <v>132</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="10">
-        <v>43276</v>
-      </c>
+      <c r="D2" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="10"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="52"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C3" s="9"/>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="10">
-        <v>43276</v>
-      </c>
+      <c r="D3" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="10"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="52"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="10">
-        <v>43278</v>
-      </c>
+      <c r="D4" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="10"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="52"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="10">
-        <v>43272</v>
-      </c>
+      <c r="D5" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" s="10"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="52"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="10">
-        <v>43277</v>
-      </c>
+      <c r="D6" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" s="10"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="52" t="s">
-        <v>140</v>
+      <c r="A7" s="38" t="s">
+        <v>138</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="10">
-        <v>43277</v>
-      </c>
+      <c r="D7" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" s="10"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="52"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="10">
-        <v>43277</v>
-      </c>
+      <c r="D8" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" s="10"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="52"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="10">
-        <v>43278</v>
-      </c>
+      <c r="D9" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" s="10"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="52"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="10">
-        <v>43278</v>
-      </c>
+      <c r="D10" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" s="10"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="52"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="10">
-        <v>43278</v>
-      </c>
+      <c r="D11" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E11" s="10"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="52" t="s">
-        <v>146</v>
+      <c r="A12" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="10">
-        <v>43273</v>
-      </c>
+      <c r="D12" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="10"/>
       <c r="F12" s="4"/>
       <c r="G12" s="3"/>
       <c r="XDU12"/>
@@ -3732,17 +3862,15 @@
       <c r="XFD12"/>
     </row>
     <row r="13" spans="1:7 16349:16384" s="5" customFormat="1" ht="42.95" customHeight="1">
-      <c r="A13" s="52"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="10">
-        <v>43273</v>
-      </c>
+      <c r="D13" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="10"/>
       <c r="F13" s="4"/>
       <c r="G13" s="3"/>
       <c r="XDU13"/>
@@ -3783,19 +3911,17 @@
       <c r="XFD13"/>
     </row>
     <row r="14" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="49" t="s">
-        <v>149</v>
+      <c r="A14" s="39" t="s">
+        <v>147</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="10">
-        <v>43274</v>
-      </c>
+      <c r="D14" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="E14" s="10"/>
       <c r="F14" s="4"/>
       <c r="G14" s="3"/>
       <c r="XDU14"/>
@@ -3836,17 +3962,15 @@
       <c r="XFD14"/>
     </row>
     <row r="15" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="50"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="10">
-        <v>43274</v>
-      </c>
+      <c r="D15" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="E15" s="10"/>
       <c r="F15" s="4"/>
       <c r="G15" s="3"/>
       <c r="XDU15"/>
@@ -3887,17 +4011,15 @@
       <c r="XFD15"/>
     </row>
     <row r="16" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="50"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="10">
-        <v>43274</v>
-      </c>
+      <c r="D16" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="E16" s="10"/>
       <c r="F16" s="4"/>
       <c r="G16" s="3"/>
       <c r="XDU16"/>
@@ -3938,17 +4060,15 @@
       <c r="XFD16"/>
     </row>
     <row r="17" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="50"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="10">
-        <v>43274</v>
-      </c>
+      <c r="D17" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="E17" s="10"/>
       <c r="F17" s="4"/>
       <c r="G17" s="3"/>
       <c r="XDU17"/>
@@ -3989,17 +4109,15 @@
       <c r="XFD17"/>
     </row>
     <row r="18" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="50"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="10">
-        <v>43276</v>
-      </c>
+      <c r="D18" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="E18" s="10"/>
       <c r="F18" s="4"/>
       <c r="G18" s="3"/>
       <c r="XDU18"/>
@@ -4040,17 +4158,15 @@
       <c r="XFD18"/>
     </row>
     <row r="19" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="50"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="10">
-        <v>43276</v>
-      </c>
+      <c r="D19" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="E19" s="10"/>
       <c r="F19" s="4"/>
       <c r="G19" s="3"/>
       <c r="XDU19"/>
@@ -4091,17 +4207,15 @@
       <c r="XFD19"/>
     </row>
     <row r="20" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="50"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="10">
-        <v>43277</v>
-      </c>
+      <c r="D20" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="E20" s="10"/>
       <c r="F20" s="4"/>
       <c r="G20" s="3"/>
       <c r="XDU20"/>
@@ -4142,17 +4256,15 @@
       <c r="XFD20"/>
     </row>
     <row r="21" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="50"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="10">
-        <v>43277</v>
-      </c>
+      <c r="D21" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="E21" s="10"/>
       <c r="F21" s="4"/>
       <c r="G21" s="3"/>
       <c r="XDU21"/>
@@ -4193,19 +4305,17 @@
       <c r="XFD21"/>
     </row>
     <row r="22" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="52" t="s">
-        <v>158</v>
+      <c r="A22" s="38" t="s">
+        <v>156</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="10">
-        <v>43279</v>
-      </c>
+      <c r="D22" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="E22" s="10"/>
       <c r="F22" s="4"/>
       <c r="G22" s="3"/>
       <c r="XDU22"/>
@@ -4246,17 +4356,15 @@
       <c r="XFD22"/>
     </row>
     <row r="23" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="52"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="10">
-        <v>43279</v>
-      </c>
+      <c r="D23" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="E23" s="10"/>
       <c r="F23" s="4"/>
       <c r="G23" s="3"/>
       <c r="XDU23"/>
@@ -4297,17 +4405,15 @@
       <c r="XFD23"/>
     </row>
     <row r="24" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="52"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="10">
-        <v>43280</v>
-      </c>
+      <c r="D24" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="E24" s="10"/>
       <c r="F24" s="4"/>
       <c r="G24" s="3"/>
       <c r="XDU24"/>
@@ -4348,17 +4454,15 @@
       <c r="XFD24"/>
     </row>
     <row r="25" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="52"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="10">
-        <v>43280</v>
-      </c>
+      <c r="D25" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="E25" s="10"/>
       <c r="F25" s="4"/>
       <c r="G25" s="3"/>
       <c r="XDU25"/>
@@ -4399,17 +4503,15 @@
       <c r="XFD25"/>
     </row>
     <row r="26" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="52"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="10">
-        <v>43280</v>
-      </c>
+      <c r="D26" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="E26" s="10"/>
       <c r="F26" s="4"/>
       <c r="G26" s="3"/>
       <c r="XDU26"/>
@@ -4450,17 +4552,15 @@
       <c r="XFD26"/>
     </row>
     <row r="27" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="52"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="10">
-        <v>43281</v>
-      </c>
+      <c r="D27" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="E27" s="10"/>
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
       <c r="XDU27"/>
@@ -4501,17 +4601,15 @@
       <c r="XFD27"/>
     </row>
     <row r="28" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="52"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="10">
-        <v>43281</v>
-      </c>
+      <c r="D28" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="E28" s="10"/>
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
       <c r="XDU28"/>
@@ -4552,19 +4650,17 @@
       <c r="XFD28"/>
     </row>
     <row r="29" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="52" t="s">
-        <v>166</v>
+      <c r="A29" s="38" t="s">
+        <v>164</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="10">
-        <v>43278</v>
-      </c>
+      <c r="D29" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E29" s="10"/>
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
       <c r="XDU29"/>
@@ -4605,17 +4701,15 @@
       <c r="XFD29"/>
     </row>
     <row r="30" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="52"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="10">
-        <v>43278</v>
-      </c>
+      <c r="D30" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E30" s="10"/>
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
       <c r="XDU30"/>
@@ -4656,17 +4750,15 @@
       <c r="XFD30"/>
     </row>
     <row r="31" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="52"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="10">
-        <v>43278</v>
-      </c>
+      <c r="D31" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E31" s="10"/>
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
       <c r="XDU31"/>
@@ -4707,152 +4799,132 @@
       <c r="XFD31"/>
     </row>
     <row r="32" spans="1:7 16349:16384" ht="23.25" customHeight="1">
-      <c r="A32" s="52"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="10">
-        <v>43278</v>
-      </c>
+      <c r="D32" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E32" s="10"/>
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A33" s="52"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="10">
-        <v>43279</v>
-      </c>
+      <c r="D33" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E33" s="10"/>
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A34" s="52"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="10">
-        <v>43279</v>
-      </c>
+      <c r="D34" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E34" s="10"/>
       <c r="F34" s="4"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A35" s="52"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="10">
-        <v>43279</v>
-      </c>
+      <c r="D35" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E35" s="10"/>
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A36" s="52"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" s="10">
-        <v>43279</v>
-      </c>
+      <c r="D36" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E36" s="10"/>
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A37" s="52"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" s="10">
-        <v>43279</v>
-      </c>
+      <c r="D37" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E37" s="10"/>
       <c r="F37" s="4"/>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A38" s="52"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="10">
-        <v>43280</v>
-      </c>
+      <c r="D38" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E38" s="10"/>
       <c r="F38" s="4"/>
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A39" s="52"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="10">
-        <v>43280</v>
-      </c>
+      <c r="D39" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E39" s="10"/>
       <c r="F39" s="4"/>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A40" s="52"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="10">
-        <v>43280</v>
-      </c>
+      <c r="D40" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E40" s="10"/>
       <c r="F40" s="4"/>
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A41" s="52"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E41" s="10">
-        <v>43281</v>
-      </c>
+      <c r="D41" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E41" s="10"/>
       <c r="F41" s="4"/>
       <c r="G41" s="3"/>
     </row>
@@ -4876,7 +4948,7 @@
   <dimension ref="A1:XDT9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -4913,7 +4985,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="39" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -4928,50 +5000,56 @@
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A3" s="50"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="15" t="s">
+        <v>268</v>
+      </c>
       <c r="E3" s="10">
-        <v>43271</v>
+        <v>43348</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="53.1" customHeight="1">
-      <c r="A4" s="50"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="15" t="s">
+        <v>268</v>
+      </c>
       <c r="E4" s="10">
-        <v>43272</v>
+        <v>43348</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="50"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="15" t="s">
+        <v>268</v>
+      </c>
       <c r="E5" s="10">
-        <v>43272</v>
+        <v>43348</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="51"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="13" t="s">
         <v>44</v>
       </c>
@@ -4985,7 +5063,7 @@
     </row>
     <row r="9" spans="1:7" ht="23.25" customHeight="1">
       <c r="C9" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -5004,7 +5082,7 @@
   <dimension ref="A1:XFD50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
@@ -5033,7 +5111,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>3</v>
@@ -5049,14 +5127,14 @@
       </c>
     </row>
     <row r="2" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="42" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="4" t="s">
@@ -5102,7 +5180,7 @@
       <c r="XFD2"/>
     </row>
     <row r="3" spans="1:8 16350:16384" s="5" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A3" s="38"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="21" t="s">
         <v>23</v>
       </c>
@@ -5151,7 +5229,7 @@
       <c r="XFD3"/>
     </row>
     <row r="4" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="38"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="21" t="s">
         <v>24</v>
       </c>
@@ -5200,20 +5278,20 @@
       <c r="XFD4"/>
     </row>
     <row r="5" spans="1:8 16350:16384" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="4"/>
@@ -5255,16 +5333,16 @@
       <c r="XFD5"/>
     </row>
     <row r="6" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="40"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="4"/>
@@ -5306,8 +5384,8 @@
       <c r="XFD6"/>
     </row>
     <row r="7" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="48" t="s">
-        <v>180</v>
+      <c r="A7" s="52" t="s">
+        <v>178</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>18</v>
@@ -5357,7 +5435,7 @@
       <c r="XFD7"/>
     </row>
     <row r="8" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="21" t="s">
         <v>19</v>
       </c>
@@ -5406,7 +5484,7 @@
       <c r="XFD8"/>
     </row>
     <row r="9" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="38"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="21" t="s">
         <v>20</v>
       </c>
@@ -5455,15 +5533,15 @@
       <c r="XFD9"/>
     </row>
     <row r="10" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="48" t="s">
-        <v>198</v>
+      <c r="A10" s="52" t="s">
+        <v>196</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>79</v>
@@ -5473,13 +5551,13 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="38"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>79</v>
@@ -5489,81 +5567,81 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="38"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>185</v>
-      </c>
       <c r="D13" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="45"/>
-      <c r="B14" s="47"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="45"/>
-      <c r="B15" s="47"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="21" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="45"/>
-      <c r="B16" s="47"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="10"/>
@@ -5571,13 +5649,13 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="45"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="10"/>
@@ -5585,13 +5663,13 @@
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="45"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="10"/>
@@ -5599,13 +5677,13 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="45"/>
-      <c r="B19" s="47"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="28" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="10"/>
@@ -5613,13 +5691,13 @@
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="45"/>
-      <c r="B20" s="47"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="10"/>
@@ -5627,72 +5705,72 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="45"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="45"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="45"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="45"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="45"/>
-      <c r="B25" s="47"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="4"/>
@@ -5701,29 +5779,29 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="45"/>
-      <c r="B26" s="47"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="45"/>
-      <c r="B27" s="47"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="10"/>
@@ -5731,185 +5809,185 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="45"/>
-      <c r="B28" s="47"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="45"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="45"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="29" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="45"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="29" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A32" s="45"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A33" s="45"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A34" s="45"/>
-      <c r="B34" s="44" t="s">
-        <v>192</v>
+      <c r="A34" s="49"/>
+      <c r="B34" s="48" t="s">
+        <v>190</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A38" s="45"/>
-      <c r="B38" s="46"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A39" s="45"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="23" t="s">
         <v>11</v>
       </c>
@@ -5923,18 +6001,18 @@
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" s="5" customFormat="1" ht="42" customHeight="1">
-      <c r="A40" s="45"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="30" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="4"/>
@@ -5943,23 +6021,23 @@
     <row r="41" spans="1:8" s="5" customFormat="1" ht="42" customHeight="1">
       <c r="A41" s="37"/>
       <c r="B41" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="D41" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="C41" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>253</v>
-      </c>
       <c r="E41" s="34" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F41" s="35"/>
       <c r="G41" s="36"/>
       <c r="H41" s="36"/>
     </row>
     <row r="42" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="45" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="21" t="s">
@@ -5967,10 +6045,10 @@
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F42" s="10">
         <v>43257</v>
@@ -5981,16 +6059,16 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A43" s="42"/>
+      <c r="A43" s="46"/>
       <c r="B43" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F43" s="10">
         <v>43257</v>
@@ -6001,7 +6079,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="43" t="s">
         <v>27</v>
       </c>
       <c r="B44" s="21" t="s">
@@ -6009,10 +6087,10 @@
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F44" s="10">
         <v>43259</v>
@@ -6023,14 +6101,14 @@
       </c>
     </row>
     <row r="45" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A45" s="43"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="4"/>
       <c r="E45" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F45" s="10">
         <v>43259</v>
@@ -6042,15 +6120,15 @@
     </row>
     <row r="46" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A46" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="4"/>
@@ -6058,17 +6136,17 @@
     </row>
     <row r="47" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A47" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="4"/>
@@ -6076,17 +6154,17 @@
     </row>
     <row r="48" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A48" s="26" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="4"/>
@@ -6094,15 +6172,15 @@
     </row>
     <row r="49" spans="1:8 16350:16384" s="5" customFormat="1" ht="42.75" customHeight="1">
       <c r="A49" s="26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="4"/>

--- a/DOC/DMS开发计划-9.3.xlsx
+++ b/DOC/DMS开发计划-9.3.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="270">
   <si>
     <t>功能模块</t>
   </si>
@@ -931,6 +931,10 @@
   </si>
   <si>
     <t>熊鹰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合工单</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1106,7 +1110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1274,6 +1278,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1579,8 +1586,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:XDT37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E28" sqref="E25:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1617,8 +1624,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="39" t="s">
-        <v>46</v>
+      <c r="A2" s="56" t="s">
+        <v>269</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>47</v>
@@ -2332,7 +2339,7 @@
   <dimension ref="A1:XDT4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -2430,7 +2437,7 @@
   <dimension ref="A1:XDT12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A6" sqref="A6:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -2666,7 +2673,7 @@
   <dimension ref="A1:XFD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A7" sqref="A7:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -3005,7 +3012,7 @@
   <dimension ref="A1:XFD15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D13" sqref="A13:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -3542,7 +3549,7 @@
   <dimension ref="A1:XDT4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D4" sqref="B2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -3639,8 +3646,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:XFD41"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -4948,7 +4955,7 @@
   <dimension ref="A1:XDT9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D3" sqref="B3:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -5082,7 +5089,7 @@
   <dimension ref="A1:XFD50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
